--- a/docs/excel/TChampionshipBlind.xlsx
+++ b/docs/excel/TChampionshipBlind.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="ChampionshipBlind" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -115,12 +115,92 @@
     <t>TableName: "ChampionshipBlind" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>升注时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>rebuy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>addon</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小盲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>blindtype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -135,6 +215,12 @@
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,6 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,8 +692,30 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -7012,7 +7123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/TChampionshipBlind.xlsx
+++ b/docs/excel/TChampionshipBlind.xlsx
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1474,7 +1474,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2994,7 +2994,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4510,7 +4510,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5268,7 +5268,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6024,7 +6024,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -6622,7 +6622,7 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/excel/TChampionshipBlind.xlsx
+++ b/docs/excel/TChampionshipBlind.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -193,6 +193,10 @@
       </rPr>
       <t>blindtype</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I241" sqref="I241"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,13 +669,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
